--- a/data/zipcode_detail.xlsx
+++ b/data/zipcode_detail.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web python\VIZ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E14CE62-72C8-449E-B16C-99BFE6F3BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F2D80-6DFB-4113-A8FA-D518EAEF7E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{046481F9-C5F7-4525-B201-4B1771BBA70C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$71</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -439,7 +442,7 @@
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,562 +461,562 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>98002</v>
+        <v>98001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>98168</v>
+        <v>98002</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>98032</v>
+        <v>98003</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>98001</v>
+        <v>98004</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>98188</v>
+        <v>98005</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>98198</v>
+        <v>98006</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>98003</v>
+        <v>98007</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>98023</v>
+        <v>98008</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>98148</v>
+        <v>98010</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>98178</v>
+        <v>98011</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>98022</v>
+        <v>98014</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>98030</v>
+        <v>98019</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>98031</v>
+        <v>98022</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>98042</v>
+        <v>98023</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>98055</v>
+        <v>98024</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>98092</v>
+        <v>98027</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>98146</v>
+        <v>98028</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>98106</v>
+        <v>98029</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>98058</v>
+        <v>98030</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>98038</v>
+        <v>98031</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>98108</v>
+        <v>98032</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>98010</v>
+        <v>98033</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>98118</v>
+        <v>98034</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>98155</v>
+        <v>98038</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>98133</v>
+        <v>98039</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>98056</v>
+        <v>98040</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>98166</v>
+        <v>98042</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>98126</v>
+        <v>98045</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>98045</v>
+        <v>98052</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>98019</v>
+        <v>98053</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>98014</v>
+        <v>98055</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>98125</v>
+        <v>98056</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>98059</v>
+        <v>98058</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>98034</v>
+        <v>98059</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>98024</v>
+        <v>98065</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>98028</v>
+        <v>98070</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>98144</v>
+        <v>98072</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>98070</v>
+        <v>98074</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>98011</v>
+        <v>98075</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>98136</v>
+        <v>98077</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>98065</v>
+        <v>98092</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>98072</v>
+        <v>98102</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>98107</v>
+        <v>98103</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>98177</v>
+        <v>98105</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>98008</v>
+        <v>98106</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>98117</v>
+        <v>98107</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>98103</v>
+        <v>98108</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>98007</v>
+        <v>98109</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>98027</v>
+        <v>98112</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>98116</v>
+        <v>98115</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>98115</v>
+        <v>98116</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>98029</v>
+        <v>98117</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>98122</v>
+        <v>98118</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>98052</v>
+        <v>98119</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>98053</v>
+        <v>98122</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>98074</v>
+        <v>98125</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>98077</v>
+        <v>98126</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>98105</v>
+        <v>98133</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>98033</v>
+        <v>98136</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>98199</v>
+        <v>98144</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>98102</v>
+        <v>98146</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>98006</v>
+        <v>98148</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>98075</v>
+        <v>98155</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>98109</v>
+        <v>98166</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>98119</v>
+        <v>98168</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>98005</v>
+        <v>98177</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>98112</v>
+        <v>98178</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>98040</v>
+        <v>98188</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>98004</v>
+        <v>98198</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>98039</v>
+        <v>98199</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
